--- a/MVPLT/data/翁兆宇-每日权重.xlsx
+++ b/MVPLT/data/翁兆宇-每日权重.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,6 +647,261 @@
         <v>0.4744586222108763</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B16">
+        <v>0.06306487371650051</v>
+      </c>
+      <c r="C16">
+        <v>0.3836508791406131</v>
+      </c>
+      <c r="D16">
+        <v>0.07848155758599762</v>
+      </c>
+      <c r="E16">
+        <v>0.4748026895568889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B17">
+        <v>0.0629352318530155</v>
+      </c>
+      <c r="C17">
+        <v>0.3838143944093015</v>
+      </c>
+      <c r="D17">
+        <v>0.0783497393816482</v>
+      </c>
+      <c r="E17">
+        <v>0.4749006343560347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B18">
+        <v>0.06286067435959594</v>
+      </c>
+      <c r="C18">
+        <v>0.3845005064444871</v>
+      </c>
+      <c r="D18">
+        <v>0.0769737761784715</v>
+      </c>
+      <c r="E18">
+        <v>0.4756650430174456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B19">
+        <v>0.06225934822181316</v>
+      </c>
+      <c r="C19">
+        <v>0.384588642868209</v>
+      </c>
+      <c r="D19">
+        <v>0.07736613021910589</v>
+      </c>
+      <c r="E19">
+        <v>0.475785878690872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B20">
+        <v>0.06274013188710541</v>
+      </c>
+      <c r="C20">
+        <v>0.3840814373651327</v>
+      </c>
+      <c r="D20">
+        <v>0.07794600821453565</v>
+      </c>
+      <c r="E20">
+        <v>0.4752324225332263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B21">
+        <v>0.0636363633556716</v>
+      </c>
+      <c r="C21">
+        <v>0.3833659429103989</v>
+      </c>
+      <c r="D21">
+        <v>0.07842466663002554</v>
+      </c>
+      <c r="E21">
+        <v>0.4745730271039039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B22">
+        <v>0.06299167088319692</v>
+      </c>
+      <c r="C22">
+        <v>0.3839167842698405</v>
+      </c>
+      <c r="D22">
+        <v>0.07766537255578262</v>
+      </c>
+      <c r="E22">
+        <v>0.4754261722911798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B23">
+        <v>0.06350288769557409</v>
+      </c>
+      <c r="C23">
+        <v>0.3838853508045577</v>
+      </c>
+      <c r="D23">
+        <v>0.07718772661903758</v>
+      </c>
+      <c r="E23">
+        <v>0.4754240348808306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B24">
+        <v>0.06321873374249772</v>
+      </c>
+      <c r="C24">
+        <v>0.3838403147076598</v>
+      </c>
+      <c r="D24">
+        <v>0.07770415513861768</v>
+      </c>
+      <c r="E24">
+        <v>0.4752367964112247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B25">
+        <v>0.06258328417927725</v>
+      </c>
+      <c r="C25">
+        <v>0.3841537384016107</v>
+      </c>
+      <c r="D25">
+        <v>0.07790159961957072</v>
+      </c>
+      <c r="E25">
+        <v>0.4753613777995413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B26">
+        <v>0.06251653659084989</v>
+      </c>
+      <c r="C26">
+        <v>0.3841555154980019</v>
+      </c>
+      <c r="D26">
+        <v>0.07814205044753997</v>
+      </c>
+      <c r="E26">
+        <v>0.4751858974636083</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B27">
+        <v>0.06316667660761893</v>
+      </c>
+      <c r="C27">
+        <v>0.3837463623053288</v>
+      </c>
+      <c r="D27">
+        <v>0.07838389638397969</v>
+      </c>
+      <c r="E27">
+        <v>0.4747030647030726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B28">
+        <v>0.06295169633133621</v>
+      </c>
+      <c r="C28">
+        <v>0.3835627116758643</v>
+      </c>
+      <c r="D28">
+        <v>0.07894537960366937</v>
+      </c>
+      <c r="E28">
+        <v>0.4745402123891301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B29">
+        <v>0.06343447223584076</v>
+      </c>
+      <c r="C29">
+        <v>0.383195584281484</v>
+      </c>
+      <c r="D29">
+        <v>0.0792196540944733</v>
+      </c>
+      <c r="E29">
+        <v>0.4741502893882019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B30">
+        <v>0.06317462776208141</v>
+      </c>
+      <c r="C30">
+        <v>0.3825487397302383</v>
+      </c>
+      <c r="D30">
+        <v>0.07935850782029259</v>
+      </c>
+      <c r="E30">
+        <v>0.4749181246873878</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MVPLT/data/翁兆宇-每日权重.xlsx
+++ b/MVPLT/data/翁兆宇-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1275,6 +1275,226 @@
         <v>0.1352412828527366</v>
       </c>
     </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B45">
+        <v>0.1245783975953074</v>
+      </c>
+      <c r="C45">
+        <v>0.6776894166288607</v>
+      </c>
+      <c r="D45">
+        <v>0.06259230507750407</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.1351398806983278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B46">
+        <v>0.123961362244391</v>
+      </c>
+      <c r="C46">
+        <v>0.6781299503053584</v>
+      </c>
+      <c r="D46">
+        <v>0.06264817684470557</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.1352605106055451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B47">
+        <v>0.1248371208176881</v>
+      </c>
+      <c r="C47">
+        <v>0.67771128082136</v>
+      </c>
+      <c r="D47">
+        <v>0.06229078427550325</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.1351608140854485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B48">
+        <v>0.1244759142417828</v>
+      </c>
+      <c r="C48">
+        <v>0.6777622760133043</v>
+      </c>
+      <c r="D48">
+        <v>0.06256350331890817</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0.1351983064260045</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B49">
+        <v>0.1250340823932836</v>
+      </c>
+      <c r="C49">
+        <v>0.6772260718957041</v>
+      </c>
+      <c r="D49">
+        <v>0.0625945667418156</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0.1351452789691967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B50">
+        <v>0.1252686681020829</v>
+      </c>
+      <c r="C50">
+        <v>0.6773673030473152</v>
+      </c>
+      <c r="D50">
+        <v>0.06221758272129906</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0.1351464461293029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B51">
+        <v>0.1264996739520658</v>
+      </c>
+      <c r="C51">
+        <v>0.6762726532861183</v>
+      </c>
+      <c r="D51">
+        <v>0.06236619791420674</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0.1348614748476092</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B52">
+        <v>0.1273282976153296</v>
+      </c>
+      <c r="C52">
+        <v>0.6753140425915873</v>
+      </c>
+      <c r="D52">
+        <v>0.06272153168826436</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0.1346361281048187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B53">
+        <v>0.1275156634497024</v>
+      </c>
+      <c r="C53">
+        <v>0.6746007833425203</v>
+      </c>
+      <c r="D53">
+        <v>0.0634242962029944</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0.134459257004783</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B54">
+        <v>0.1269842085924976</v>
+      </c>
+      <c r="C54">
+        <v>0.6750955597426096</v>
+      </c>
+      <c r="D54">
+        <v>0.06339053421056413</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0.1345296974543287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B55">
+        <v>0.1272329818949135</v>
+      </c>
+      <c r="C55">
+        <v>0.6746579785641148</v>
+      </c>
+      <c r="D55">
+        <v>0.06369461052136077</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.1344144290196109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MVPLT/data/翁兆宇-每日权重.xlsx
+++ b/MVPLT/data/翁兆宇-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,6 +1495,586 @@
         <v>0.1344144290196109</v>
       </c>
     </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B56">
+        <v>0.2309632694207695</v>
+      </c>
+      <c r="C56">
+        <v>0.4007383453015689</v>
+      </c>
+      <c r="D56">
+        <v>0.1046199305980694</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0.2636784546795922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B57">
+        <v>0.229771826211196</v>
+      </c>
+      <c r="C57">
+        <v>0.4018358394332866</v>
+      </c>
+      <c r="D57">
+        <v>0.1040007170874128</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0.2643916172681046</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B58">
+        <v>0.2294589642264658</v>
+      </c>
+      <c r="C58">
+        <v>0.4021019640917856</v>
+      </c>
+      <c r="D58">
+        <v>0.1040043134020673</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.2644347582796813</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B59">
+        <v>0.2268317899645518</v>
+      </c>
+      <c r="C59">
+        <v>0.4031113001922648</v>
+      </c>
+      <c r="D59">
+        <v>0.1050692314475</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.2649876783956834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B60">
+        <v>0.2279335804064859</v>
+      </c>
+      <c r="C60">
+        <v>0.4030221347194631</v>
+      </c>
+      <c r="D60">
+        <v>0.1041810932193143</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.2648631916547368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B61">
+        <v>0.2282130626321178</v>
+      </c>
+      <c r="C61">
+        <v>0.4034965059509307</v>
+      </c>
+      <c r="D61">
+        <v>0.1031678581928123</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0.2651225732241392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B62">
+        <v>0.2222774149412077</v>
+      </c>
+      <c r="C62">
+        <v>0.4073123232288844</v>
+      </c>
+      <c r="D62">
+        <v>0.1030651794267324</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0.2673450824031753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B63">
+        <v>0.2195453319127987</v>
+      </c>
+      <c r="C63">
+        <v>0.4097301329556077</v>
+      </c>
+      <c r="D63">
+        <v>0.1018994871552247</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0.2688250479763689</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B64">
+        <v>0.2188467444110519</v>
+      </c>
+      <c r="C64">
+        <v>0.4104551391781467</v>
+      </c>
+      <c r="D64">
+        <v>0.101433048373411</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0.2692650680373905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B65">
+        <v>0.2122161906241639</v>
+      </c>
+      <c r="C65">
+        <v>0.4152069022791162</v>
+      </c>
+      <c r="D65">
+        <v>0.1002431556847266</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0.2723337514119934</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B66">
+        <v>0.2147754374247882</v>
+      </c>
+      <c r="C66">
+        <v>0.4137981602565179</v>
+      </c>
+      <c r="D66">
+        <v>0.1001854621252147</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0.2712409401934792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B67">
+        <v>0.2164790120957767</v>
+      </c>
+      <c r="C67">
+        <v>0.4128629999100183</v>
+      </c>
+      <c r="D67">
+        <v>0.1000875305895605</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0.2705704574046444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B68">
+        <v>0.2172270440444778</v>
+      </c>
+      <c r="C68">
+        <v>0.4116035439359435</v>
+      </c>
+      <c r="D68">
+        <v>0.1014833334935344</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0.2696860785260443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B69">
+        <v>0.2202783272980698</v>
+      </c>
+      <c r="C69">
+        <v>0.4089866175301012</v>
+      </c>
+      <c r="D69">
+        <v>0.1030083881487793</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0.2677266670230499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B70">
+        <v>0.220855091414877</v>
+      </c>
+      <c r="C70">
+        <v>0.4084222806820988</v>
+      </c>
+      <c r="D70">
+        <v>0.1034525191803739</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0.2672701087226502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B71">
+        <v>0.2230460104906953</v>
+      </c>
+      <c r="C71">
+        <v>0.4073320683892526</v>
+      </c>
+      <c r="D71">
+        <v>0.1035086438990282</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0.2661132772210239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B72">
+        <v>0.2211438183983614</v>
+      </c>
+      <c r="C72">
+        <v>0.4089013797992547</v>
+      </c>
+      <c r="D72">
+        <v>0.1030146810278222</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0.2669401207745616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B73">
+        <v>0.2204110852752997</v>
+      </c>
+      <c r="C73">
+        <v>0.4101907602375082</v>
+      </c>
+      <c r="D73">
+        <v>0.1017517157706901</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0.267646438716502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B74">
+        <v>0.2218038403851893</v>
+      </c>
+      <c r="C74">
+        <v>0.4097736697127647</v>
+      </c>
+      <c r="D74">
+        <v>0.1010983424842624</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0.2673241474177835</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B75">
+        <v>0.220504892956661</v>
+      </c>
+      <c r="C75">
+        <v>0.4103688541074167</v>
+      </c>
+      <c r="D75">
+        <v>0.1013816219270705</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0.2677446310088518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B76">
+        <v>0.2203080349473245</v>
+      </c>
+      <c r="C76">
+        <v>0.4097432202338098</v>
+      </c>
+      <c r="D76">
+        <v>0.1026121554194906</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0.2673365893993751</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B77">
+        <v>0.2223815383483442</v>
+      </c>
+      <c r="C77">
+        <v>0.4086096368390355</v>
+      </c>
+      <c r="D77">
+        <v>0.1024654807922507</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0.2665433440203696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B78">
+        <v>0.221310269215522</v>
+      </c>
+      <c r="C78">
+        <v>0.4100606792121049</v>
+      </c>
+      <c r="D78">
+        <v>0.1012473719981538</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0.2673816795742192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B79">
+        <v>0.2231056210570346</v>
+      </c>
+      <c r="C79">
+        <v>0.4096397538812894</v>
+      </c>
+      <c r="D79">
+        <v>0.1002239379798168</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0.2670306870818591</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B80">
+        <v>0.2242745949165825</v>
+      </c>
+      <c r="C80">
+        <v>0.4082596408900002</v>
+      </c>
+      <c r="D80">
+        <v>0.1013929229569309</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0.2660728412364865</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B81">
+        <v>0.225610213450965</v>
+      </c>
+      <c r="C81">
+        <v>0.4079977210957946</v>
+      </c>
+      <c r="D81">
+        <v>0.1006169049968054</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0.2657751604564349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B82">
+        <v>0.2242357311106188</v>
+      </c>
+      <c r="C82">
+        <v>0.4088045480552831</v>
+      </c>
+      <c r="D82">
+        <v>0.1006066788262917</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0.2663530420078064</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B83">
+        <v>0.2231422500758268</v>
+      </c>
+      <c r="C83">
+        <v>0.4092663904063328</v>
+      </c>
+      <c r="D83">
+        <v>0.1009551682707452</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0.266636191247095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B84">
+        <v>0.2237915331879878</v>
+      </c>
+      <c r="C84">
+        <v>0.4089932492411982</v>
+      </c>
+      <c r="D84">
+        <v>0.1008070236999336</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0.2664081938708803</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MVPLT/data/翁兆宇-每日权重.xlsx
+++ b/MVPLT/data/翁兆宇-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1560,19 +1560,19 @@
         <v>43132</v>
       </c>
       <c r="B59">
-        <v>0.2268317899645518</v>
+        <v>0.226711638383111</v>
       </c>
       <c r="C59">
-        <v>0.4031113001922648</v>
+        <v>0.4028977743005794</v>
       </c>
       <c r="D59">
-        <v>0.1050692314475</v>
+        <v>0.1050135768396465</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.2649876783956834</v>
+        <v>0.2653770104766632</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1580,19 +1580,19 @@
         <v>43133</v>
       </c>
       <c r="B60">
-        <v>0.2279335804064859</v>
+        <v>0.2278129019018902</v>
       </c>
       <c r="C60">
-        <v>0.4030221347194631</v>
+        <v>0.4028087562938262</v>
       </c>
       <c r="D60">
-        <v>0.1041810932193143</v>
+        <v>0.1041259349643769</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.2648631916547368</v>
+        <v>0.2652524068399068</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1600,19 +1600,19 @@
         <v>43136</v>
       </c>
       <c r="B61">
-        <v>0.2282130626321178</v>
+        <v>0.2280921178936616</v>
       </c>
       <c r="C61">
-        <v>0.4034965059509307</v>
+        <v>0.4032826672739619</v>
       </c>
       <c r="D61">
-        <v>0.1031678581928123</v>
+        <v>0.1031131829280299</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.2651225732241392</v>
+        <v>0.2655120319043466</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1620,19 +1620,19 @@
         <v>43137</v>
       </c>
       <c r="B62">
-        <v>0.2222774149412077</v>
+        <v>0.2221586289073041</v>
       </c>
       <c r="C62">
-        <v>0.4073123232288844</v>
+        <v>0.4070946537213944</v>
       </c>
       <c r="D62">
-        <v>0.1030651794267324</v>
+        <v>0.1030101009388847</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.2673450824031753</v>
+        <v>0.2677366164324168</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1640,19 +1640,19 @@
         <v>43138</v>
       </c>
       <c r="B63">
-        <v>0.2195453319127987</v>
+        <v>0.2194273567733749</v>
       </c>
       <c r="C63">
-        <v>0.4097301329556077</v>
+        <v>0.4095099598863813</v>
       </c>
       <c r="D63">
-        <v>0.1018994871552247</v>
+        <v>0.1018447303261925</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.2688250479763689</v>
+        <v>0.2692179530140514</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1660,19 +1660,19 @@
         <v>43139</v>
       </c>
       <c r="B64">
-        <v>0.2188467444110519</v>
+        <v>0.2187289522786178</v>
       </c>
       <c r="C64">
-        <v>0.4104551391781467</v>
+        <v>0.4102342156901486</v>
       </c>
       <c r="D64">
-        <v>0.101433048373411</v>
+        <v>0.1013784530213104</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.2692650680373905</v>
+        <v>0.2696583790099233</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1680,19 +1680,19 @@
         <v>43140</v>
       </c>
       <c r="B65">
-        <v>0.2122161906241639</v>
+        <v>0.2121006662839118</v>
       </c>
       <c r="C65">
-        <v>0.4152069022791162</v>
+        <v>0.4149808756818388</v>
       </c>
       <c r="D65">
-        <v>0.1002431556847266</v>
+        <v>0.1001885862176599</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.2723337514119934</v>
+        <v>0.2727298718165895</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1700,19 +1700,19 @@
         <v>43143</v>
       </c>
       <c r="B66">
-        <v>0.2147754374247882</v>
+        <v>0.214658988812895</v>
       </c>
       <c r="C66">
-        <v>0.4137981602565179</v>
+        <v>0.413573803961666</v>
       </c>
       <c r="D66">
-        <v>0.1001854621252147</v>
+        <v>0.1001311427945862</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.2712409401934792</v>
+        <v>0.2716360644308527</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1720,19 +1720,19 @@
         <v>43144</v>
       </c>
       <c r="B67">
-        <v>0.2164790120957767</v>
+        <v>0.2163619298031532</v>
       </c>
       <c r="C67">
-        <v>0.4128629999100183</v>
+        <v>0.4126397036832805</v>
       </c>
       <c r="D67">
-        <v>0.1000875305895605</v>
+        <v>0.1000333984248254</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.2705704574046444</v>
+        <v>0.2709649680887409</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1740,19 +1740,19 @@
         <v>43145</v>
       </c>
       <c r="B68">
-        <v>0.2172270440444778</v>
+        <v>0.21710994098729</v>
       </c>
       <c r="C68">
-        <v>0.4116035439359435</v>
+        <v>0.4113816561247078</v>
       </c>
       <c r="D68">
-        <v>0.1014833334935344</v>
+        <v>0.1014286257168946</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.2696860785260443</v>
+        <v>0.2700797771711075</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1760,19 +1760,19 @@
         <v>43153</v>
       </c>
       <c r="B69">
-        <v>0.2202783272980698</v>
+        <v>0.2201604416555602</v>
       </c>
       <c r="C69">
-        <v>0.4089866175301012</v>
+        <v>0.4087677414800752</v>
       </c>
       <c r="D69">
-        <v>0.1030083881487793</v>
+        <v>0.102953261481668</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.2677266670230499</v>
+        <v>0.2681185553826967</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1780,19 +1780,19 @@
         <v>43154</v>
       </c>
       <c r="B70">
-        <v>0.220855091414877</v>
+        <v>0.2207370985582154</v>
       </c>
       <c r="C70">
-        <v>0.4084222806820988</v>
+        <v>0.4082040791848494</v>
       </c>
       <c r="D70">
-        <v>0.1034525191803739</v>
+        <v>0.1033972491923074</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.2672701087226502</v>
+        <v>0.2676615730646278</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1800,19 +1800,19 @@
         <v>43157</v>
       </c>
       <c r="B71">
-        <v>0.2230460104906953</v>
+        <v>0.2229273626285926</v>
       </c>
       <c r="C71">
-        <v>0.4073320683892526</v>
+        <v>0.4071153907675641</v>
       </c>
       <c r="D71">
-        <v>0.1035086438990282</v>
+        <v>0.103453583154921</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.2661132772210239</v>
+        <v>0.2665036634489223</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1820,19 +1820,19 @@
         <v>43158</v>
       </c>
       <c r="B72">
-        <v>0.2211438183983614</v>
+        <v>0.2210258170817492</v>
       </c>
       <c r="C72">
-        <v>0.4089013797992547</v>
+        <v>0.4086831919180364</v>
       </c>
       <c r="D72">
-        <v>0.1030146810278222</v>
+        <v>0.1029597128714446</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.2669401207745616</v>
+        <v>0.2673312781287697</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1840,19 +1840,19 @@
         <v>43159</v>
       </c>
       <c r="B73">
-        <v>0.2204110852752997</v>
+        <v>0.2202931639137095</v>
       </c>
       <c r="C73">
-        <v>0.4101907602375082</v>
+        <v>0.4099713055177126</v>
       </c>
       <c r="D73">
-        <v>0.1017517157706901</v>
+        <v>0.1016972779421533</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.267646438716502</v>
+        <v>0.2680382526264244</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1860,19 +1860,19 @@
         <v>43160</v>
       </c>
       <c r="B74">
-        <v>0.2218038403851893</v>
+        <v>0.2216853167086209</v>
       </c>
       <c r="C74">
-        <v>0.4097736697127647</v>
+        <v>0.409554701989704</v>
       </c>
       <c r="D74">
-        <v>0.1010983424842624</v>
+        <v>0.1010443193112398</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.2673241474177835</v>
+        <v>0.2677156619904351</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1880,19 +1880,19 @@
         <v>43161</v>
       </c>
       <c r="B75">
-        <v>0.220504892956661</v>
+        <v>0.2203868781499221</v>
       </c>
       <c r="C75">
-        <v>0.4103688541074167</v>
+        <v>0.4101492236023527</v>
       </c>
       <c r="D75">
-        <v>0.1013816219270705</v>
+        <v>0.1013273622126571</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.2677446310088518</v>
+        <v>0.268136536035068</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1900,19 +1900,19 @@
         <v>43164</v>
       </c>
       <c r="B76">
-        <v>0.2203080349473245</v>
+        <v>0.2201903050969576</v>
       </c>
       <c r="C76">
-        <v>0.4097432202338098</v>
+        <v>0.4095242585966707</v>
       </c>
       <c r="D76">
-        <v>0.1026121554194906</v>
+        <v>0.1025573207707851</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.2673365893993751</v>
+        <v>0.2677281155355867</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1920,19 +1920,19 @@
         <v>43165</v>
       </c>
       <c r="B77">
-        <v>0.2223815383483442</v>
+        <v>0.222263052873614</v>
       </c>
       <c r="C77">
-        <v>0.4086096368390355</v>
+        <v>0.4083919285384284</v>
       </c>
       <c r="D77">
-        <v>0.1024654807922507</v>
+        <v>0.1024108869117276</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.2665433440203696</v>
+        <v>0.26693413167623</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1940,19 +1940,19 @@
         <v>43166</v>
       </c>
       <c r="B78">
-        <v>0.221310269215522</v>
+        <v>0.2211919838472232</v>
       </c>
       <c r="C78">
-        <v>0.4100606792121049</v>
+        <v>0.40984151098897</v>
       </c>
       <c r="D78">
-        <v>0.1012473719981538</v>
+        <v>0.1011932575518222</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0.2673816795742192</v>
+        <v>0.2677732476119846</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1960,19 +1960,19 @@
         <v>43167</v>
       </c>
       <c r="B79">
-        <v>0.2231056210570346</v>
+        <v>0.222986532563034</v>
       </c>
       <c r="C79">
-        <v>0.4096397538812894</v>
+        <v>0.4094210978871402</v>
       </c>
       <c r="D79">
-        <v>0.1002239379798168</v>
+        <v>0.1001704408165437</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.2670306870818591</v>
+        <v>0.2674219287332821</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1980,19 +1980,19 @@
         <v>43168</v>
       </c>
       <c r="B80">
-        <v>0.2242745949165825</v>
+        <v>0.2241553116352924</v>
       </c>
       <c r="C80">
-        <v>0.4082596408900002</v>
+        <v>0.4080425028338517</v>
       </c>
       <c r="D80">
-        <v>0.1013929229569309</v>
+        <v>0.1013389958478243</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.2660728412364865</v>
+        <v>0.2664631896830317</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2000,19 +2000,19 @@
         <v>43171</v>
       </c>
       <c r="B81">
-        <v>0.225610213450965</v>
+        <v>0.2254903539809437</v>
       </c>
       <c r="C81">
-        <v>0.4079977210957946</v>
+        <v>0.4077809649929904</v>
       </c>
       <c r="D81">
-        <v>0.1006169049968054</v>
+        <v>0.10056345046244</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.2657751604564349</v>
+        <v>0.2661652305636258</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2020,19 +2020,19 @@
         <v>43172</v>
       </c>
       <c r="B82">
-        <v>0.2242357311106188</v>
+        <v>0.2241163429711907</v>
       </c>
       <c r="C82">
-        <v>0.4088045480552831</v>
+        <v>0.4085868913324213</v>
       </c>
       <c r="D82">
-        <v>0.1006066788262917</v>
+        <v>0.1005531135709257</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.2663530420078064</v>
+        <v>0.2667436521254622</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2040,19 +2040,19 @@
         <v>43173</v>
       </c>
       <c r="B83">
-        <v>0.2231422500758268</v>
+        <v>0.2230233178997386</v>
       </c>
       <c r="C83">
-        <v>0.4092663904063328</v>
+        <v>0.4090482562681577</v>
       </c>
       <c r="D83">
-        <v>0.1009551682707452</v>
+        <v>0.1009013603619081</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.266636191247095</v>
+        <v>0.2670270654701955</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2060,19 +2060,299 @@
         <v>43174</v>
       </c>
       <c r="B84">
-        <v>0.2237915331879878</v>
+        <v>0.2236723568907516</v>
       </c>
       <c r="C84">
-        <v>0.4089932492411982</v>
+        <v>0.4087754469841386</v>
       </c>
       <c r="D84">
-        <v>0.1008070236999336</v>
+        <v>0.1007533406689055</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.2664081938708803</v>
+        <v>0.2667988554562043</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B85">
+        <v>0.09058220691579161</v>
+      </c>
+      <c r="C85">
+        <v>0.7547418779178585</v>
+      </c>
+      <c r="D85">
+        <v>0.02125414790106269</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0.1334217672652871</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B86">
+        <v>0.09087373526161636</v>
+      </c>
+      <c r="C86">
+        <v>0.7546620869567262</v>
+      </c>
+      <c r="D86">
+        <v>0.02108998120560619</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0.1333741965760512</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B87">
+        <v>0.09093500376242257</v>
+      </c>
+      <c r="C87">
+        <v>0.7544890247187586</v>
+      </c>
+      <c r="D87">
+        <v>0.02130657554374032</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0.1332693959750784</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B88">
+        <v>0.09046234450808538</v>
+      </c>
+      <c r="C88">
+        <v>0.7546590140615863</v>
+      </c>
+      <c r="D88">
+        <v>0.02165049159507711</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0.1332281498352513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B89">
+        <v>0.08970876061849356</v>
+      </c>
+      <c r="C89">
+        <v>0.7555180556514498</v>
+      </c>
+      <c r="D89">
+        <v>0.02150643151819066</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0.1332667522118662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B90">
+        <v>0.08671394686390696</v>
+      </c>
+      <c r="C90">
+        <v>0.7580850833153501</v>
+      </c>
+      <c r="D90">
+        <v>0.02176745942424881</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0.1334335103964941</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B91">
+        <v>0.08670859657423509</v>
+      </c>
+      <c r="C91">
+        <v>0.7582263836888369</v>
+      </c>
+      <c r="D91">
+        <v>0.0216792553312795</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0.1333857644056487</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B92">
+        <v>0.08769336663479814</v>
+      </c>
+      <c r="C92">
+        <v>0.7573808277898035</v>
+      </c>
+      <c r="D92">
+        <v>0.02164539853062818</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0.1332804070447702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B93">
+        <v>0.086402485301583</v>
+      </c>
+      <c r="C93">
+        <v>0.7586175693838129</v>
+      </c>
+      <c r="D93">
+        <v>0.02152952001636175</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0.1334504252982424</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B94">
+        <v>0.08737460557520908</v>
+      </c>
+      <c r="C94">
+        <v>0.7577049466462615</v>
+      </c>
+      <c r="D94">
+        <v>0.02164165694947157</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0.1332787908290578</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B95">
+        <v>0.08768885998101338</v>
+      </c>
+      <c r="C95">
+        <v>0.7575020314009699</v>
+      </c>
+      <c r="D95">
+        <v>0.02162610339310501</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0.1331830052249117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B96">
+        <v>0.0875231753235656</v>
+      </c>
+      <c r="C96">
+        <v>0.7580419699345617</v>
+      </c>
+      <c r="D96">
+        <v>0.02125443899198117</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0.1331804157498914</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B97">
+        <v>0.08689799617008166</v>
+      </c>
+      <c r="C97">
+        <v>0.7585511646192401</v>
+      </c>
+      <c r="D97">
+        <v>0.02134679447232457</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0.1332040447383536</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B98">
+        <v>0.086591492218601</v>
+      </c>
+      <c r="C98">
+        <v>0.7589505848363426</v>
+      </c>
+      <c r="D98">
+        <v>0.02128595087319324</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0.1331719720718633</v>
       </c>
     </row>
   </sheetData>
